--- a/docentes/Merino Altamira Violeta - Estadisticos 20242.xlsx
+++ b/docentes/Merino Altamira Violeta - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="35">
   <si>
     <t>Mat</t>
   </si>
@@ -88,187 +88,40 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>COBOS</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
+    <t>ELIZALDE</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>LLANOS</t>
   </si>
   <si>
     <t>ARELLANO</t>
   </si>
   <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>MARQUEZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
-    <t>ELIZALDE</t>
-  </si>
-  <si>
-    <t>ANGELES</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>QUESADA</t>
-  </si>
-  <si>
-    <t>NOLASCO</t>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
   </si>
   <si>
     <t>FIERROS</t>
   </si>
   <si>
-    <t>SOTO</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>TIZA</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>ROCHA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>GALINDO</t>
-  </si>
-  <si>
-    <t>JOSE</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>OLGUIN</t>
-  </si>
-  <si>
-    <t>YOLET</t>
-  </si>
-  <si>
-    <t>ERIK OMAR</t>
+    <t>JOSE CARMELO</t>
+  </si>
+  <si>
+    <t>GUILLERMO ALEXANDER</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
   </si>
   <si>
     <t>ALDO EMANUEL</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>GUILLERMO ALEXANDER</t>
-  </si>
-  <si>
-    <t>ARACELY</t>
-  </si>
-  <si>
-    <t>CRISTIAN OSMAR</t>
-  </si>
-  <si>
-    <t>ABDIEL NOE</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>ERIK</t>
-  </si>
-  <si>
-    <t>CRHIS AMINADAB</t>
-  </si>
-  <si>
-    <t>JOSE CARMELO</t>
-  </si>
-  <si>
-    <t>AZURA</t>
-  </si>
-  <si>
-    <t>JARET</t>
-  </si>
-  <si>
-    <t>JONATAN GILBERTO</t>
-  </si>
-  <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
-    <t>HECTOR MISAEL</t>
-  </si>
-  <si>
-    <t>OSMAR</t>
-  </si>
-  <si>
-    <t>NOEMI DEL ROCIO</t>
-  </si>
-  <si>
-    <t>KAREN</t>
-  </si>
-  <si>
-    <t>CESAR DANIEL</t>
-  </si>
-  <si>
-    <t>ANGEL DE JESUS</t>
-  </si>
-  <si>
-    <t>JARED DE JESUS</t>
   </si>
 </sst>
 </file>
@@ -922,16 +775,19 @@
         <v>19</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>7.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -945,16 +801,19 @@
         <v>20</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -968,16 +827,19 @@
         <v>20</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -991,16 +853,19 @@
         <v>28</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>92.86</v>
+      </c>
+      <c r="H5">
+        <v>7.4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1014,16 +879,19 @@
         <v>17</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>17</v>
       </c>
-      <c r="E6">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>7.8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1037,16 +905,19 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H7">
+        <v>8.6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1060,16 +931,19 @@
         <v>25</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H8">
+        <v>7.7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1083,16 +957,19 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="H9">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1151,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>94.73999999999999</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1177,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1203,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1229,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>92.86</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1255,16 +1132,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>70.59</v>
+        <v>100</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1290,7 +1167,7 @@
         <v>92</v>
       </c>
       <c r="H7">
-        <v>8.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1307,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H8">
-        <v>7.7</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1342,7 +1219,7 @@
         <v>92</v>
       </c>
       <c r="H9">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -1352,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1387,22 +1264,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920007</v>
+        <v>22330051920298</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1410,22 +1287,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920192</v>
+        <v>22330051920298</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1433,22 +1310,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22330051920192</v>
+        <v>22330051920298</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1456,22 +1333,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920231</v>
+        <v>22330051920314</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1479,22 +1356,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920396</v>
+        <v>22330051920314</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -1505,16 +1382,16 @@
         <v>22330051920314</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -1525,531 +1402,48 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920314</v>
+        <v>21330051420317</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920314</v>
+        <v>22330051920231</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>22330051920190</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>22330051920359</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>22330051920180</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>22330051920201</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>22330051920201</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>22330051920202</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>22330051920202</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>22330051920239</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>22330051920298</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>22330051920298</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>22330051920230</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>22330051920357</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>22330051920405</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>22330051920395</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>22330051920279</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>22330051920363</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>22330051920253</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>22330051920257</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>21330051920133</v>
-      </c>
-      <c r="B28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>22330051920303</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>22330051920312</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
